--- a/biology/Biologie cellulaire et moléculaire/Récepteur_farnésoïde_X/Récepteur_farnésoïde_X.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_farnésoïde_X/Récepteur_farnésoïde_X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_farn%C3%A9so%C3%AFde_X</t>
+          <t>Récepteur_farnésoïde_X</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  récepteur farnésoïde X (FXR) est une protéine de la superfamille des récepteurs nucléaires, famille des récepteurs orphelins. Il est codé par le gène FXR situé sur le chromosome 12 humain.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_farn%C3%A9so%C3%AFde_X</t>
+          <t>Récepteur_farnésoïde_X</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son ligand sont les acides biliaires[1].
-Le Peroxisome proliferator-activated receptor-γ coactivator 1α (PGC-1α) augmente l'expression du gène FXR ainsi que celle des protéines cibles du FXR[2]. Le DRIP205 agit également comme co-activateur[3].
-Le FXR permet la méthylation de l'histone H3 grâce à l'action du CARM1 (coactivator-associated arginine methyltransferase 1)[4] et intervient ainsi sur la transcription de nombreux gènes. Il active également le PRMT1 (Protein arginine N-methyltransferase 1)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son ligand sont les acides biliaires.
+Le Peroxisome proliferator-activated receptor-γ coactivator 1α (PGC-1α) augmente l'expression du gène FXR ainsi que celle des protéines cibles du FXR. Le DRIP205 agit également comme co-activateur.
+Le FXR permet la méthylation de l'histone H3 grâce à l'action du CARM1 (coactivator-associated arginine methyltransferase 1) et intervient ainsi sur la transcription de nombreux gènes. Il active également le PRMT1 (Protein arginine N-methyltransferase 1).
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_farn%C3%A9so%C3%AFde_X</t>
+          <t>Récepteur_farnésoïde_X</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">les souris déficientes en ce récepteur ont un taux sanguin élevé en triglycérides, un diabète sucré, une diminution de la sensibilité à l'insuline. Au contraire, l'activation de ce récepteur permet, chez l'animal, d'améliorer le taux de triglycérides et le diabète[6]. 
-Le diabète diminue l'expression hépatique du FXR, effet antagonisée sous insuline[7].
-Le jeûne stimule le PGC-1α, et par ce biais, le FXR permettant une diminution du taux des triglycérides[2]. 
-Ce récepteur facilite l'élimination des acides biliaires et diminue la synthèse de ces derniers en réprimant leur gène. Il a par ce biais un effet protecteur sur le foie contre la cholestase[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">les souris déficientes en ce récepteur ont un taux sanguin élevé en triglycérides, un diabète sucré, une diminution de la sensibilité à l'insuline. Au contraire, l'activation de ce récepteur permet, chez l'animal, d'améliorer le taux de triglycérides et le diabète. 
+Le diabète diminue l'expression hépatique du FXR, effet antagonisée sous insuline.
+Le jeûne stimule le PGC-1α, et par ce biais, le FXR permettant une diminution du taux des triglycérides. 
+Ce récepteur facilite l'élimination des acides biliaires et diminue la synthèse de ces derniers en réprimant leur gène. Il a par ce biais un effet protecteur sur le foie contre la cholestase.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_farn%C3%A9so%C3%AFde_X</t>
+          <t>Récepteur_farnésoïde_X</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acide obéticholique active ce récepteur et a des résultats prometteurs dans la stéatose hépatique non alcoolique[9]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acide obéticholique active ce récepteur et a des résultats prometteurs dans la stéatose hépatique non alcoolique. 
 </t>
         </is>
       </c>
